--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-12-the-filter-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-12-the-filter-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{1E91D228-4562-4D0C-BE79-A5AB00B6321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D54DC34-2F27-4FA4-AE60-E05DFEC9F203}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817CA372-A8CB-465F-B7BC-1D89BBA9B40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>Ming Sia</t>
   </si>
@@ -193,6 +215,15 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Unique Exam</t>
+  </si>
+  <si>
+    <t>Unique Date</t>
+  </si>
+  <si>
+    <t>Unique Grade</t>
   </si>
 </sst>
 </file>
@@ -221,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,25 +290,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,6 +340,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4510658-7BF5-4C71-B055-D833F947D4A4}" name="Exam_Result" displayName="Exam_Result" ref="A3:D41" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D41" xr:uid="{A4510658-7BF5-4C71-B055-D833F947D4A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B2BDA0FE-1E33-4A47-A37E-45EA8794D774}" name="Student"/>
+    <tableColumn id="2" xr3:uid="{A5BBE85C-5F45-48D8-A82C-8F0A0C8BCF3E}" name="Exam"/>
+    <tableColumn id="3" xr3:uid="{5C1E21C9-A788-403E-AC62-B314630557EC}" name="Grade"/>
+    <tableColumn id="4" xr3:uid="{B9294916-9DFB-435A-9438-60CE06F8A390}" name="Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,17 +628,40 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="11.796875" customWidth="1"/>
     <col min="10" max="10" width="13.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.09765625" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
+    <col min="14" max="16" width="11.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" cm="1">
+        <f t="array" ref="O2:O39">_xlfn.UNIQUE(Exam_Result[Date])</f>
+        <v>44562</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" ref="P2:P7">_xlfn.UNIQUE(Exam_Result[Grade])</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -594,11 +686,20 @@
       <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44563</v>
+      </c>
+      <c r="P3" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -611,8 +712,33 @@
       <c r="D4" s="2">
         <v>44562</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:K13">_xlfn._xlws.FILTER(Exam_Result[],Exam_Result[Exam]=F4,"Not found")</f>
+        <v>Brooke Burns</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J4" t="str">
+        <v>C</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44565</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44564</v>
+      </c>
+      <c r="P4" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -625,8 +751,29 @@
       <c r="D5" s="2">
         <v>44563</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <v>Mary Woo</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J5" t="str">
+        <v>D</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44569</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44565</v>
+      </c>
+      <c r="P5" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -642,8 +789,26 @@
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <v>Jonas Keats</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J6" t="str">
+        <v>E</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44572</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44566</v>
+      </c>
+      <c r="P6" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -657,8 +822,26 @@
         <v>44565</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <v>Michael Fladgate</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J7" t="str">
+        <v>D</v>
+      </c>
+      <c r="K7" s="2">
+        <v>44578</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44567</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -671,8 +854,23 @@
       <c r="D8" s="2">
         <v>44566</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <v>Eunice Murray</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44586</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -688,8 +886,23 @@
       <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <v>Steve Dean</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J9" t="str">
+        <v>B</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44588</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -702,8 +915,23 @@
       <c r="D10" s="2">
         <v>44568</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <v>Simon Franklin</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J10" t="str">
+        <v>C</v>
+      </c>
+      <c r="K10" s="2">
+        <v>44590</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -716,8 +944,23 @@
       <c r="D11" s="2">
         <v>44569</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <v>Carol Hart</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J11" t="str">
+        <v>A</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44592</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -730,8 +973,23 @@
       <c r="D12" s="2">
         <v>44570</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <v>Susie Harrington</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J12" t="str">
+        <v>D</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44595</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -744,8 +1002,23 @@
       <c r="D13" s="2">
         <v>44571</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <v>Ernesto Allen</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J13" t="str">
+        <v>D</v>
+      </c>
+      <c r="K13" s="2">
+        <v>44598</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -758,8 +1031,11 @@
       <c r="D14" s="2">
         <v>44572</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -772,8 +1048,11 @@
       <c r="D15" s="2">
         <v>44573</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -786,8 +1065,11 @@
       <c r="D16" s="2">
         <v>44574</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -800,8 +1082,11 @@
       <c r="D17" s="2">
         <v>44575</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -814,8 +1099,11 @@
       <c r="D18" s="2">
         <v>44576</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -828,8 +1116,11 @@
       <c r="D19" s="2">
         <v>44577</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -842,8 +1133,11 @@
       <c r="D20" s="2">
         <v>44578</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -856,8 +1150,11 @@
       <c r="D21" s="2">
         <v>44579</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -870,8 +1167,11 @@
       <c r="D22" s="2">
         <v>44580</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -884,8 +1184,11 @@
       <c r="D23" s="2">
         <v>44581</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -898,8 +1201,11 @@
       <c r="D24" s="2">
         <v>44582</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -912,8 +1218,11 @@
       <c r="D25" s="2">
         <v>44583</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O25" s="2">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -926,8 +1235,11 @@
       <c r="D26" s="2">
         <v>44584</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O26" s="2">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -940,8 +1252,11 @@
       <c r="D27" s="2">
         <v>44585</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O27" s="2">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -954,8 +1269,11 @@
       <c r="D28" s="2">
         <v>44586</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O28" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -968,8 +1286,11 @@
       <c r="D29" s="2">
         <v>44587</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O29" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -982,8 +1303,11 @@
       <c r="D30" s="2">
         <v>44588</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O30" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -996,8 +1320,11 @@
       <c r="D31" s="2">
         <v>44589</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O31" s="2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1010,8 +1337,11 @@
       <c r="D32" s="2">
         <v>44590</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O32" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1024,8 +1354,11 @@
       <c r="D33" s="2">
         <v>44591</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O33" s="2">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1038,8 +1371,11 @@
       <c r="D34" s="2">
         <v>44592</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O34" s="2">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1052,8 +1388,11 @@
       <c r="D35" s="2">
         <v>44593</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O35" s="2">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1066,8 +1405,11 @@
       <c r="D36" s="2">
         <v>44594</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O36" s="2">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1080,8 +1422,11 @@
       <c r="D37" s="2">
         <v>44595</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O37" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1094,8 +1439,11 @@
       <c r="D38" s="2">
         <v>44596</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O38" s="2">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1108,8 +1456,11 @@
       <c r="D39" s="2">
         <v>44597</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O39" s="2">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +1474,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1492,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G22:G37">
     <sortCondition ref="G22:G37"/>
   </sortState>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{6464DAD8-F669-4505-B3ED-0963B84B89A0}">
+      <formula1>$N$2:$N$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{D7ECF682-53D4-4DCD-89A8-E862F4176E86}">
+      <formula1>$O$2:$O$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10" xr:uid="{0CAACF93-5CD9-4AB6-A174-D738426CEA9E}">
+      <formula1>$P$2:$P$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>